--- a/data/0. old data/0. raw/2016/companies/menarini.xlsx
+++ b/data/0. old data/0. raw/2016/companies/menarini.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1057">
   <si>
     <t>sponsorship</t>
   </si>
@@ -2974,15 +2974,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t>Bäderstrasse 16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Kirchberg</t>
     </r>
   </si>
   <si>
@@ -8517,9 +8508,9 @@
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8583,13 +8574,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>23</v>
@@ -8613,13 +8604,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>25</v>
@@ -8643,13 +8634,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -8675,16 +8666,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>645</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="27"/>
@@ -8705,16 +8696,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>647</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="27"/>
@@ -8737,13 +8728,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>30</v>
@@ -8767,13 +8758,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>31</v>
@@ -8799,16 +8790,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="27"/>
@@ -8831,16 +8822,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="27"/>
@@ -8863,16 +8854,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="27"/>
@@ -8897,13 +8888,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>35</v>
@@ -8929,13 +8920,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>36</v>
@@ -8961,13 +8952,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>38</v>
@@ -8991,13 +8982,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>40</v>
@@ -9023,13 +9014,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>42</v>
@@ -9055,13 +9046,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>43</v>
@@ -9087,13 +9078,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>44</v>
@@ -9119,13 +9110,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>46</v>
@@ -9151,13 +9142,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>47</v>
@@ -9183,13 +9174,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>49</v>
@@ -9215,13 +9206,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>51</v>
@@ -9249,13 +9240,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>53</v>
@@ -9281,13 +9272,13 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>55</v>
@@ -9313,13 +9304,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>57</v>
@@ -9345,13 +9336,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>59</v>
@@ -9377,13 +9368,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>60</v>
@@ -9409,13 +9400,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>60</v>
@@ -9441,13 +9432,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>47</v>
@@ -9473,13 +9464,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>62</v>
@@ -9505,13 +9496,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>63</v>
@@ -9537,13 +9528,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>63</v>
@@ -9569,13 +9560,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>60</v>
@@ -9601,13 +9592,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -9633,16 +9624,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="18"/>
@@ -9665,13 +9656,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>66</v>
@@ -9697,13 +9688,13 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>68</v>
@@ -9727,13 +9718,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>70</v>
@@ -9759,13 +9750,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>71</v>
@@ -9791,13 +9782,13 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>73</v>
@@ -9823,13 +9814,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>75</v>
@@ -9853,13 +9844,13 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>77</v>
@@ -9883,13 +9874,13 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>78</v>
@@ -9913,13 +9904,13 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>75</v>
@@ -9943,13 +9934,13 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>79</v>
@@ -9973,13 +9964,13 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>80</v>
@@ -10005,13 +9996,13 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>82</v>
@@ -10035,13 +10026,13 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>84</v>
@@ -10067,13 +10058,13 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>85</v>
@@ -10101,13 +10092,13 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>86</v>
@@ -10133,13 +10124,13 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>87</v>
@@ -10165,13 +10156,13 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>89</v>
@@ -10197,13 +10188,13 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>90</v>
@@ -10227,13 +10218,13 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>92</v>
@@ -10257,13 +10248,13 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>94</v>
@@ -10287,16 +10278,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="18"/>
@@ -10319,13 +10310,13 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>96</v>
@@ -10351,13 +10342,13 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>98</v>
@@ -10383,13 +10374,13 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>100</v>
@@ -10413,13 +10404,13 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>102</v>
@@ -10445,16 +10436,16 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="18"/>
@@ -10477,13 +10468,13 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>104</v>
@@ -10509,13 +10500,13 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>106</v>
@@ -10541,13 +10532,13 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>108</v>
@@ -10571,13 +10562,13 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>109</v>
@@ -10603,13 +10594,13 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>111</v>
@@ -10637,13 +10628,13 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>111</v>
@@ -10671,13 +10662,13 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>112</v>
@@ -10703,13 +10694,13 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>113</v>
@@ -10735,13 +10726,13 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>115</v>
@@ -10767,13 +10758,13 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>117</v>
@@ -10799,13 +10790,13 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>27</v>
@@ -10829,13 +10820,13 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>118</v>
@@ -10859,16 +10850,16 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="18"/>
@@ -10891,13 +10882,13 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>79</v>
@@ -10921,16 +10912,16 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="18"/>
@@ -10953,13 +10944,13 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>121</v>
@@ -10985,13 +10976,13 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>122</v>
@@ -11017,13 +11008,13 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>123</v>
@@ -11049,16 +11040,16 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="18"/>
@@ -11081,13 +11072,13 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>118</v>
@@ -11112,16 +11103,16 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="18"/>
@@ -11143,13 +11134,13 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>127</v>
@@ -11176,13 +11167,13 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>128</v>
@@ -11209,13 +11200,13 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>129</v>
@@ -11241,13 +11232,13 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>131</v>
@@ -11274,13 +11265,13 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>132</v>
@@ -11305,13 +11296,13 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>133</v>
@@ -11336,13 +11327,13 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>135</v>
@@ -11369,13 +11360,13 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>49</v>
@@ -11402,13 +11393,13 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>136</v>
@@ -11436,13 +11427,13 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>94</v>
@@ -11466,16 +11457,16 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="18"/>
@@ -11498,16 +11489,16 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="18"/>
@@ -11530,13 +11521,13 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>138</v>
@@ -11562,16 +11553,16 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="18"/>
@@ -11594,13 +11585,13 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>140</v>
@@ -11626,13 +11617,13 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>142</v>
@@ -11658,13 +11649,13 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>143</v>
@@ -11688,13 +11679,13 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>145</v>
@@ -11720,16 +11711,16 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="18"/>
@@ -11750,13 +11741,13 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>147</v>
@@ -11782,13 +11773,13 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>149</v>
@@ -11814,13 +11805,13 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>149</v>
@@ -11846,13 +11837,13 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>150</v>
@@ -11878,13 +11869,13 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>151</v>
@@ -11912,13 +11903,13 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>151</v>
@@ -11944,13 +11935,13 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>153</v>
@@ -11974,13 +11965,13 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>154</v>
@@ -12006,13 +11997,13 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>155</v>
@@ -12036,13 +12027,13 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>156</v>
@@ -12066,13 +12057,13 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>158</v>
@@ -12098,13 +12089,13 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>158</v>
@@ -12130,13 +12121,13 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>160</v>
@@ -12162,13 +12153,13 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>162</v>
@@ -12196,13 +12187,13 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>164</v>
@@ -12228,13 +12219,13 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>166</v>
@@ -12260,13 +12251,13 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>168</v>
@@ -12292,13 +12283,13 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>170</v>
@@ -12324,13 +12315,13 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>172</v>
@@ -12356,13 +12347,13 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>173</v>
@@ -12388,13 +12379,13 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>175</v>
@@ -12418,13 +12409,13 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>177</v>
@@ -12450,13 +12441,13 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>178</v>
@@ -12480,13 +12471,13 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>180</v>
@@ -12512,13 +12503,13 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>181</v>
@@ -12544,13 +12535,13 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>75</v>
@@ -12576,13 +12567,13 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>182</v>
@@ -12606,13 +12597,13 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>183</v>
@@ -12638,13 +12629,13 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>185</v>
@@ -12668,13 +12659,13 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>186</v>
@@ -12700,13 +12691,13 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>188</v>
@@ -12732,13 +12723,13 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>190</v>
@@ -12764,13 +12755,13 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>192</v>
@@ -12794,13 +12785,13 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>193</v>
@@ -12826,13 +12817,13 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>195</v>
@@ -12856,13 +12847,13 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>196</v>
@@ -12888,13 +12879,13 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>198</v>
@@ -12920,13 +12911,13 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>199</v>
@@ -12954,13 +12945,13 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>200</v>
@@ -12986,13 +12977,13 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>202</v>
@@ -13018,13 +13009,13 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>203</v>
@@ -13048,13 +13039,13 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>205</v>
@@ -13080,16 +13071,16 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="18"/>
@@ -13112,13 +13103,13 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>208</v>
@@ -13142,16 +13133,16 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>675</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="18"/>
@@ -13174,13 +13165,13 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>210</v>
@@ -13206,13 +13197,13 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>212</v>
@@ -13238,13 +13229,13 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>213</v>
@@ -13268,13 +13259,13 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>214</v>
@@ -13300,13 +13291,13 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>215</v>
@@ -13332,13 +13323,13 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>216</v>
@@ -13362,13 +13353,13 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>217</v>
@@ -13392,13 +13383,13 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>212</v>
@@ -13424,13 +13415,13 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -13454,13 +13445,13 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>75</v>
@@ -13488,13 +13479,13 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>219</v>
@@ -13520,16 +13511,16 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="18"/>
@@ -13550,13 +13541,13 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>221</v>
@@ -13582,13 +13573,13 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>222</v>
@@ -13612,13 +13603,13 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>223</v>
@@ -13642,13 +13633,13 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>224</v>
@@ -13672,13 +13663,13 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>225</v>
@@ -13704,13 +13695,13 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>226</v>
@@ -13736,13 +13727,13 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>117</v>
@@ -13768,13 +13759,13 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>228</v>
@@ -13800,13 +13791,13 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>229</v>
@@ -13830,13 +13821,13 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>231</v>
@@ -13862,13 +13853,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>232</v>
@@ -13892,13 +13883,13 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>233</v>
@@ -13924,13 +13915,13 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>235</v>
@@ -13956,13 +13947,13 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>236</v>
@@ -13988,13 +13979,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>237</v>
@@ -14018,13 +14009,13 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>238</v>
@@ -14050,13 +14041,13 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>196</v>
@@ -14082,13 +14073,13 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>239</v>
@@ -14114,13 +14105,13 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>240</v>
@@ -14146,13 +14137,13 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>242</v>
@@ -14176,13 +14167,13 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>243</v>
@@ -14208,13 +14199,13 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>245</v>
@@ -14240,13 +14231,13 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>247</v>
@@ -14270,13 +14261,13 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>118</v>
@@ -14300,16 +14291,16 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E183" s="11"/>
       <c r="F183" s="18"/>
@@ -14332,13 +14323,13 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>75</v>
@@ -14362,13 +14353,13 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>248</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>249</v>
@@ -14394,13 +14385,13 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>251</v>
@@ -14424,13 +14415,13 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>252</v>
@@ -14456,13 +14447,13 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>254</v>
@@ -14488,13 +14479,13 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>255</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>256</v>
@@ -14518,13 +14509,13 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>257</v>
@@ -14550,13 +14541,13 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B191" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>259</v>
@@ -14582,13 +14573,13 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>217</v>
@@ -14614,13 +14605,13 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>261</v>
@@ -14646,13 +14637,13 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>261</v>
@@ -14678,13 +14669,13 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>263</v>
@@ -14708,13 +14699,13 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>264</v>
@@ -14740,13 +14731,13 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>254</v>
@@ -14772,13 +14763,13 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>265</v>
@@ -14802,13 +14793,13 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>266</v>
@@ -14834,13 +14825,13 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>267</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>268</v>
@@ -14866,13 +14857,13 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>267</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>268</v>
@@ -14898,13 +14889,13 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>269</v>
@@ -14930,13 +14921,13 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D203" s="11" t="s">
         <v>270</v>
@@ -14964,13 +14955,13 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>271</v>
@@ -14996,13 +14987,13 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
@@ -15026,13 +15017,13 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>75</v>
@@ -15056,13 +15047,13 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>273</v>
@@ -15088,13 +15079,13 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>274</v>
@@ -15120,13 +15111,13 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>132</v>
@@ -15152,13 +15143,13 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D210" s="11" t="s">
         <v>275</v>
@@ -15184,13 +15175,13 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>277</v>
@@ -15214,13 +15205,13 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>278</v>
@@ -15244,13 +15235,13 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>75</v>
@@ -15274,13 +15265,13 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>90</v>
@@ -15306,13 +15297,13 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>279</v>
@@ -15338,13 +15329,13 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>90</v>
@@ -15368,13 +15359,13 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>280</v>
@@ -15398,13 +15389,13 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>282</v>
@@ -15430,13 +15421,13 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B219" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>284</v>
@@ -15462,13 +15453,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B220" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>286</v>
@@ -15496,13 +15487,13 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B221" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>288</v>
@@ -15528,13 +15519,13 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>289</v>
@@ -15560,16 +15551,16 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="22"/>
@@ -15592,13 +15583,13 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B224" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>291</v>
@@ -15624,13 +15615,13 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>291</v>
@@ -15656,13 +15647,13 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>236</v>
@@ -15688,13 +15679,13 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B227" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>293</v>
@@ -15720,13 +15711,13 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>271</v>
@@ -15752,13 +15743,13 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>295</v>
@@ -15784,16 +15775,16 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="22"/>
@@ -15814,13 +15805,13 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>297</v>
@@ -15844,13 +15835,13 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>299</v>
@@ -15874,13 +15865,13 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>301</v>
@@ -15906,13 +15897,13 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>302</v>
@@ -15938,13 +15929,13 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>304</v>
@@ -15970,13 +15961,13 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>305</v>
@@ -16004,13 +15995,13 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>306</v>
@@ -16036,13 +16027,13 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>307</v>
@@ -16068,13 +16059,13 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D239" s="11" t="s">
         <v>308</v>
@@ -16100,13 +16091,13 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D240" s="11" t="s">
         <v>309</v>
@@ -16132,13 +16123,13 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>310</v>
@@ -16166,13 +16157,13 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>155</v>
@@ -16196,13 +16187,13 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D243" s="11" t="s">
         <v>312</v>
@@ -16228,13 +16219,13 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>47</v>
@@ -16260,13 +16251,13 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B245" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>313</v>
@@ -16290,13 +16281,13 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B246" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>315</v>
@@ -16322,13 +16313,13 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>316</v>
@@ -16354,13 +16345,13 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B248" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>57</v>
@@ -16386,13 +16377,13 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>317</v>
@@ -16418,13 +16409,13 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>319</v>
@@ -16450,13 +16441,13 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B251" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>136</v>
@@ -16482,13 +16473,13 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>320</v>
@@ -16512,13 +16503,13 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>321</v>
@@ -16542,13 +16533,13 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>323</v>
@@ -16574,13 +16565,13 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>324</v>
@@ -16606,13 +16597,13 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>326</v>
@@ -16636,13 +16627,13 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>328</v>
@@ -16668,13 +16659,13 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B258" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>329</v>
@@ -16698,13 +16689,13 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B259" s="11" t="s">
         <v>330</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>331</v>
@@ -16730,13 +16721,13 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>217</v>
@@ -16760,13 +16751,13 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D261" s="11" t="s">
         <v>332</v>
@@ -16794,13 +16785,13 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B262" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>333</v>
@@ -16826,13 +16817,13 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B263" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>335</v>
@@ -16856,13 +16847,13 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B264" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>337</v>
@@ -16888,13 +16879,13 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B265" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>339</v>
@@ -16920,13 +16911,13 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>267</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>340</v>
@@ -16950,16 +16941,16 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D267" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="E267" s="8"/>
       <c r="F267" s="22"/>
@@ -16982,16 +16973,16 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E268" s="11"/>
       <c r="F268" s="22"/>
@@ -17014,16 +17005,16 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E269" s="11"/>
       <c r="F269" s="22"/>
@@ -17044,16 +17035,16 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B270" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D270" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E270" s="11"/>
       <c r="F270" s="22"/>
@@ -17076,16 +17067,16 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="22"/>
@@ -17106,16 +17097,16 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E272" s="11"/>
       <c r="F272" s="22"/>
@@ -17138,16 +17129,16 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B273" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D273" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D273" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="22"/>
@@ -17168,16 +17159,16 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E274" s="11"/>
       <c r="F274" s="22"/>
@@ -17200,13 +17191,13 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>219</v>
@@ -17232,16 +17223,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B276" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D276" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="22"/>
@@ -17264,16 +17255,16 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="22"/>
@@ -17294,13 +17285,13 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>75</v>
@@ -17328,16 +17319,16 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B279" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D279" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="E279" s="11"/>
       <c r="F279" s="22"/>
@@ -17360,16 +17351,16 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E280" s="11"/>
       <c r="F280" s="22"/>
@@ -17392,16 +17383,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E281" s="11"/>
       <c r="F281" s="22"/>
@@ -17424,16 +17415,16 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="22"/>
@@ -17456,16 +17447,16 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B283" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D283" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>359</v>
       </c>
       <c r="E283" s="8"/>
       <c r="F283" s="22"/>
@@ -17486,13 +17477,13 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>90</v>
@@ -17518,16 +17509,16 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B285" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D285" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>361</v>
       </c>
       <c r="E285" s="8"/>
       <c r="F285" s="22"/>
@@ -17550,16 +17541,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B286" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="22"/>
@@ -17582,16 +17573,16 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B287" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="22"/>
@@ -17612,13 +17603,13 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B288" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D288" s="11" t="s">
         <v>104</v>
@@ -17644,16 +17635,16 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B289" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D289" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D289" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="E289" s="8"/>
       <c r="F289" s="22"/>
@@ -17676,16 +17667,16 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B290" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D290" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="E290" s="8"/>
       <c r="F290" s="22"/>
@@ -17708,16 +17699,16 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B291" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D291" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="E291" s="11"/>
       <c r="F291" s="22"/>
@@ -17740,16 +17731,16 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B292" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E292" s="8"/>
       <c r="F292" s="22"/>
@@ -17770,16 +17761,16 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B293" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D293" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="C293" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D293" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="E293" s="11"/>
       <c r="F293" s="22"/>
@@ -17802,13 +17793,13 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D294" s="11" t="s">
         <v>252</v>
@@ -17834,16 +17825,16 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E295" s="8"/>
       <c r="F295" s="22"/>
@@ -17868,16 +17859,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B296" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D296" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C296" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="22"/>
@@ -17900,16 +17891,16 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="22"/>
@@ -17934,16 +17925,16 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B298" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="22"/>
@@ -17964,16 +17955,16 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B299" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D299" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="22"/>
@@ -17996,16 +17987,16 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B300" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E300" s="11"/>
       <c r="F300" s="22"/>
@@ -18028,16 +18019,16 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="22"/>
@@ -18060,16 +18051,16 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B302" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D302" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="C302" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="22"/>
@@ -18092,16 +18083,16 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B303" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D303" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D303" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="E303" s="11"/>
       <c r="F303" s="22"/>
@@ -18124,16 +18115,16 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="22"/>
@@ -18156,16 +18147,16 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B305" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D305" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="C305" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="22"/>
@@ -18188,16 +18179,16 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E306" s="8"/>
       <c r="F306" s="22"/>
@@ -18218,16 +18209,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="19">
@@ -18248,16 +18239,16 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B308" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="C308" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C308" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="E308" s="8"/>
       <c r="F308" s="22"/>
@@ -18278,16 +18269,16 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="22"/>
@@ -18308,16 +18299,16 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B310" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="C310" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D310" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="E310" s="8"/>
       <c r="F310" s="22"/>
@@ -18338,16 +18329,16 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B311" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="B311" s="11" t="s">
-        <v>691</v>
-      </c>
       <c r="C311" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E311" s="8"/>
       <c r="F311" s="22"/>
@@ -18368,16 +18359,16 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D312" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C312" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>693</v>
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="18"/>
@@ -18398,16 +18389,16 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="22"/>
@@ -18428,16 +18419,16 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B314" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="C314" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D314" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="E314" s="8"/>
       <c r="F314" s="22"/>
@@ -18458,16 +18449,16 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B315" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="C315" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D315" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C315" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="22"/>
@@ -18488,16 +18479,16 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B316" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="C316" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D316" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D316" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="E316" s="10"/>
       <c r="F316" s="22"/>
@@ -18518,16 +18509,16 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="C317" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="E317" s="8"/>
       <c r="F317" s="22"/>
@@ -18548,16 +18539,16 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="C318" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E318" s="8"/>
       <c r="F318" s="22"/>
@@ -18578,16 +18569,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E319" s="8"/>
       <c r="F319" s="22"/>
@@ -18608,16 +18599,16 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E320" s="8"/>
       <c r="F320" s="22"/>
@@ -18638,16 +18629,16 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E321" s="8"/>
       <c r="F321" s="22"/>
@@ -18668,16 +18659,16 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B322" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="C322" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D322" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="E322" s="8"/>
       <c r="F322" s="32">
@@ -18698,16 +18689,16 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E323" s="8"/>
       <c r="F323" s="22"/>
@@ -18730,16 +18721,16 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E324" s="8"/>
       <c r="F324" s="22"/>
@@ -18760,16 +18751,16 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B325" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D325" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="E325" s="8"/>
       <c r="F325" s="22"/>
@@ -18790,16 +18781,16 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E326" s="8"/>
       <c r="F326" s="22"/>
@@ -18822,16 +18813,16 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E327" s="8"/>
       <c r="F327" s="22"/>
@@ -18852,16 +18843,16 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B328" s="8" t="s">
+      <c r="C328" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D328" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="E328" s="8"/>
       <c r="F328" s="22"/>
@@ -18882,16 +18873,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E329" s="8"/>
       <c r="F329" s="22"/>
@@ -18912,16 +18903,16 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B330" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D330" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="E330" s="8"/>
       <c r="F330" s="22"/>
@@ -18942,16 +18933,16 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="22"/>
@@ -18972,16 +18963,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E332" s="8"/>
       <c r="F332" s="22"/>
@@ -19002,16 +18993,16 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="32">
@@ -19032,16 +19023,16 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E334" s="8"/>
       <c r="F334" s="22"/>
@@ -19062,16 +19053,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B335" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="C335" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D335" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D335" s="10" t="s">
-        <v>447</v>
       </c>
       <c r="E335" s="8"/>
       <c r="F335" s="22"/>
@@ -19092,16 +19083,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E336" s="8"/>
       <c r="F336" s="22"/>
@@ -19122,16 +19113,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E337" s="8"/>
       <c r="F337" s="22"/>
@@ -19152,13 +19143,13 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
@@ -19180,16 +19171,16 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E339" s="8"/>
       <c r="F339" s="22"/>
@@ -19210,16 +19201,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E340" s="8"/>
       <c r="F340" s="22"/>
@@ -19240,16 +19231,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B341" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="C341" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D341" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C341" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D341" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="E341" s="8"/>
       <c r="F341" s="22"/>
@@ -19270,16 +19261,16 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B342" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D342" s="11" t="s">
         <v>702</v>
-      </c>
-      <c r="C342" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D342" s="11" t="s">
-        <v>703</v>
       </c>
       <c r="E342" s="11"/>
       <c r="F342" s="22"/>
@@ -19302,16 +19293,16 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E343" s="8"/>
       <c r="F343" s="22"/>
@@ -19332,16 +19323,16 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B344" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B344" s="8" t="s">
-        <v>462</v>
-      </c>
       <c r="C344" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="22"/>
@@ -19362,16 +19353,16 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B345" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="B345" s="8" t="s">
-        <v>653</v>
-      </c>
       <c r="C345" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E345" s="8"/>
       <c r="F345" s="22"/>
@@ -19394,16 +19385,16 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B346" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B346" s="8" t="s">
+      <c r="C346" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D346" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="E346" s="8"/>
       <c r="F346" s="22"/>
@@ -19424,16 +19415,16 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E347" s="8"/>
       <c r="F347" s="18"/>
@@ -19454,16 +19445,16 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E348" s="8"/>
       <c r="F348" s="22"/>
@@ -19484,16 +19475,16 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B349" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D349" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="B349" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="C349" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="E349" s="8"/>
       <c r="F349" s="22"/>
@@ -19514,16 +19505,16 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E350" s="11"/>
       <c r="F350" s="24"/>
@@ -19544,16 +19535,16 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="B351" s="8" t="s">
-        <v>709</v>
-      </c>
       <c r="C351" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E351" s="8"/>
       <c r="F351" s="22"/>
@@ -19574,16 +19565,16 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B352" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D352" s="10" t="s">
         <v>710</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D352" s="10" t="s">
-        <v>711</v>
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="22"/>
@@ -19604,16 +19595,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B353" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D353" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="E353" s="11"/>
       <c r="F353" s="22"/>
@@ -19634,16 +19625,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E354" s="8"/>
       <c r="F354" s="22"/>
@@ -19664,16 +19655,16 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B355" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="C355" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D355" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="C355" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>479</v>
       </c>
       <c r="E355" s="8"/>
       <c r="F355" s="22"/>
@@ -19694,16 +19685,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="C356" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D356" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="C356" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="22"/>
@@ -19724,16 +19715,16 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E357" s="8"/>
       <c r="F357" s="22"/>
@@ -19754,16 +19745,16 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="22"/>
@@ -19784,13 +19775,13 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>27</v>
@@ -19814,16 +19805,16 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B360" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D360" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="C360" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D360" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="22"/>
@@ -19844,16 +19835,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E361" s="8"/>
       <c r="F361" s="22"/>
@@ -19874,16 +19865,16 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="22"/>
@@ -19904,16 +19895,16 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B363" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E363" s="10"/>
       <c r="F363" s="22"/>
@@ -19934,16 +19925,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="C364" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D364" s="8" t="s">
         <v>719</v>
-      </c>
-      <c r="C364" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D364" s="8" t="s">
-        <v>720</v>
       </c>
       <c r="E364" s="8"/>
       <c r="F364" s="22"/>
@@ -19964,16 +19955,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E365" s="8"/>
       <c r="F365" s="22"/>
@@ -19994,16 +19985,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D366" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C366" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="E366" s="8"/>
       <c r="F366" s="22"/>
@@ -20024,16 +20015,16 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="22"/>
@@ -20054,16 +20045,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E368" s="8"/>
       <c r="F368" s="22"/>
@@ -20084,16 +20075,16 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="22"/>
@@ -20114,16 +20105,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E370" s="8"/>
       <c r="F370" s="22"/>
@@ -20144,16 +20135,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E371" s="8"/>
       <c r="F371" s="22"/>
@@ -20174,13 +20165,13 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
@@ -20202,16 +20193,16 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B373" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B373" s="8" t="s">
-        <v>503</v>
-      </c>
       <c r="C373" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E373" s="8"/>
       <c r="F373" s="22"/>
@@ -20234,16 +20225,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E374" s="8"/>
       <c r="F374" s="22"/>
@@ -20264,16 +20255,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="C375" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D375" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="C375" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D375" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="E375" s="8"/>
       <c r="F375" s="22"/>
@@ -20294,16 +20285,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B376" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="C376" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D376" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="C376" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D376" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="22"/>
@@ -20324,16 +20315,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="22"/>
@@ -20354,13 +20345,13 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>132</v>
@@ -20384,16 +20375,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="22"/>
@@ -20414,16 +20405,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="22"/>
@@ -20444,16 +20435,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="22"/>
@@ -20474,16 +20465,16 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B382" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="C382" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D382" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="C382" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D382" s="10" t="s">
-        <v>523</v>
       </c>
       <c r="E382" s="8"/>
       <c r="F382" s="22"/>
@@ -20504,16 +20495,16 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E383" s="8"/>
       <c r="F383" s="22"/>
@@ -20534,16 +20525,16 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="22"/>
@@ -20568,16 +20559,16 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D385" s="8" t="s">
         <v>726</v>
-      </c>
-      <c r="B385" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>727</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="22"/>
@@ -20598,16 +20589,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D386" s="8" t="s">
         <v>728</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C386" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>729</v>
       </c>
       <c r="E386" s="8"/>
       <c r="F386" s="22"/>
@@ -20628,16 +20619,16 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E387" s="10"/>
       <c r="F387" s="22"/>
@@ -20658,16 +20649,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B388" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D388" s="10" t="s">
         <v>529</v>
-      </c>
-      <c r="C388" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D388" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="E388" s="10"/>
       <c r="F388" s="22"/>
@@ -20688,16 +20679,16 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B389" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="C389" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D389" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="C389" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="22"/>
@@ -20718,16 +20709,16 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="C390" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D390" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="C390" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>536</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="22"/>
@@ -20748,16 +20739,16 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B391" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="C391" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D391" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="C391" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D391" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="E391" s="10"/>
       <c r="F391" s="22"/>
@@ -20778,16 +20769,16 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E392" s="10"/>
       <c r="F392" s="22"/>
@@ -20808,16 +20799,16 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B393" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="C393" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D393" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="C393" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>543</v>
       </c>
       <c r="E393" s="8"/>
       <c r="F393" s="22"/>
@@ -20838,16 +20829,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E394" s="8"/>
       <c r="F394" s="22"/>
@@ -20868,16 +20859,16 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="C395" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D395" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C395" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="22"/>
@@ -20898,16 +20889,16 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E396" s="8"/>
       <c r="F396" s="22"/>
@@ -20928,16 +20919,16 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B397" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E397" s="10"/>
       <c r="F397" s="25"/>
@@ -20958,16 +20949,16 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B398" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="C398" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D398" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="C398" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="E398" s="8"/>
       <c r="F398" s="22"/>
@@ -20988,16 +20979,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D399" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E399" s="10"/>
       <c r="F399" s="22"/>
@@ -21018,16 +21009,16 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D400" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C400" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D400" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="22"/>
@@ -21048,16 +21039,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E401" s="8"/>
       <c r="F401" s="22"/>
@@ -21078,16 +21069,16 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B402" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D402" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="C402" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D402" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="22"/>
@@ -21108,16 +21099,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="22"/>
@@ -21138,16 +21129,16 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="C404" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D404" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="C404" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D404" s="10" t="s">
-        <v>566</v>
       </c>
       <c r="E404" s="8"/>
       <c r="F404" s="22"/>
@@ -21168,16 +21159,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E405" s="8"/>
       <c r="F405" s="22"/>
@@ -21198,16 +21189,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="19">
@@ -21230,16 +21221,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="22"/>
@@ -21260,16 +21251,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B408" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B408" s="10" t="s">
-        <v>574</v>
-      </c>
       <c r="C408" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D408" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E408" s="10"/>
       <c r="F408" s="22"/>
@@ -21290,16 +21281,16 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E409" s="8"/>
       <c r="F409" s="32">
@@ -21320,16 +21311,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E410" s="11"/>
       <c r="F410" s="22"/>
@@ -21350,16 +21341,16 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D411" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E411" s="10"/>
       <c r="F411" s="22"/>
@@ -21380,16 +21371,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="32">
@@ -21410,16 +21401,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B413" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="C413" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D413" s="11" t="s">
         <v>582</v>
-      </c>
-      <c r="C413" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D413" s="11" t="s">
-        <v>583</v>
       </c>
       <c r="E413" s="11"/>
       <c r="F413" s="22"/>
@@ -21440,16 +21431,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E414" s="8"/>
       <c r="F414" s="22"/>
@@ -21470,16 +21461,16 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B415" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D415" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="C415" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D415" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="E415" s="8"/>
       <c r="F415" s="22"/>
@@ -21500,16 +21491,16 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B416" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D416" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="25"/>
@@ -21530,16 +21521,16 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E417" s="8"/>
       <c r="F417" s="22"/>
@@ -21560,16 +21551,16 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B418" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E418" s="8"/>
       <c r="F418" s="22"/>
@@ -21590,16 +21581,16 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E419" s="8"/>
       <c r="F419" s="22"/>
@@ -21620,16 +21611,16 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E420" s="8"/>
       <c r="F420" s="22"/>
@@ -21650,16 +21641,16 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B421" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B421" s="11" t="s">
+      <c r="C421" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D421" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="C421" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D421" s="11" t="s">
-        <v>595</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="22"/>
@@ -21680,16 +21671,16 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B422" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D422" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C422" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D422" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="22"/>
@@ -21710,16 +21701,16 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B423" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="C423" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D423" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="C423" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D423" s="8" t="s">
-        <v>599</v>
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="22"/>
@@ -21740,16 +21731,16 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="22"/>
@@ -21770,16 +21761,16 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B425" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E425" s="8"/>
       <c r="F425" s="22"/>
@@ -21800,16 +21791,16 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B426" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D426" s="11" t="s">
         <v>604</v>
-      </c>
-      <c r="B426" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C426" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D426" s="11" t="s">
-        <v>605</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="22"/>
@@ -21830,16 +21821,16 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B427" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="C427" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D427" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C427" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="22"/>
@@ -21860,13 +21851,13 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B428" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>252</v>
@@ -21890,16 +21881,16 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D429" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="B429" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C429" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D429" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="E429" s="10"/>
       <c r="F429" s="22"/>
@@ -21920,13 +21911,13 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B430" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D430" s="8" t="s">
         <v>252</v>
@@ -21950,16 +21941,16 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B431" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="B431" s="8" t="s">
-        <v>613</v>
-      </c>
       <c r="C431" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="22"/>
@@ -21980,16 +21971,16 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D432" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="22"/>
@@ -22010,16 +22001,16 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B433" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="C433" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D433" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D433" s="8" t="s">
-        <v>618</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="22"/>
@@ -22040,16 +22031,16 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B434" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="22"/>
@@ -22070,16 +22061,16 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E435" s="8"/>
       <c r="F435" s="22"/>
@@ -22100,13 +22091,13 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B436" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D436" s="8" t="s">
         <v>109</v>
@@ -22132,13 +22123,13 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B437" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D437" s="8" t="s">
         <v>217</v>
@@ -22162,13 +22153,13 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D438" s="8" t="s">
         <v>217</v>
@@ -22192,16 +22183,16 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E439" s="8"/>
       <c r="F439" s="22"/>
@@ -22222,16 +22213,16 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B440" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D440" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="31">
@@ -22252,13 +22243,13 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -22280,16 +22271,16 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B442" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="22"/>
@@ -22310,16 +22301,16 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B443" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="19">
@@ -22340,16 +22331,16 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B444" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E444" s="8"/>
       <c r="F444" s="22"/>
@@ -22370,16 +22361,16 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B445" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E445" s="8"/>
       <c r="F445" s="22"/>
@@ -22400,16 +22391,16 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B446" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="22"/>
@@ -22430,16 +22421,16 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B447" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E447" s="8"/>
       <c r="F447" s="32">
@@ -22460,13 +22451,13 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B448" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>217</v>
@@ -22490,16 +22481,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D449" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E449" s="8"/>
       <c r="F449" s="22"/>
@@ -22815,7 +22806,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
@@ -22838,7 +22829,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -22861,7 +22852,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -22884,7 +22875,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -22907,7 +22898,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -22930,7 +22921,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -22953,7 +22944,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -22976,7 +22967,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -22999,7 +22990,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -23022,7 +23013,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B11">
         <v>2016</v>

--- a/data/0. old data/0. raw/2016/companies/menarini.xlsx
+++ b/data/0. old data/0. raw/2016/companies/menarini.xlsx
@@ -555,15 +555,6 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Postfach 33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>St. Gallen</t>
     </r>
   </si>
@@ -7511,6 +7502,9 @@
   </si>
   <si>
     <t>Zimmerli Voegtli, Marianne</t>
+  </si>
+  <si>
+    <t>Römertorstrasse 1</t>
   </si>
 </sst>
 </file>
@@ -8508,9 +8502,9 @@
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8574,13 +8568,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="35" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>23</v>
@@ -8604,13 +8598,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>25</v>
@@ -8634,13 +8628,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -8666,16 +8660,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>643</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>644</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="27"/>
@@ -8696,16 +8690,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="27"/>
@@ -8728,13 +8722,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>30</v>
@@ -8758,13 +8752,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>31</v>
@@ -8790,16 +8784,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="27"/>
@@ -8822,16 +8816,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="27"/>
@@ -8854,16 +8848,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="27"/>
@@ -8888,13 +8882,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>35</v>
@@ -8920,13 +8914,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>36</v>
@@ -8952,13 +8946,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>38</v>
@@ -8982,13 +8976,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>40</v>
@@ -9014,13 +9008,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>42</v>
@@ -9046,13 +9040,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>43</v>
@@ -9078,13 +9072,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>44</v>
@@ -9110,13 +9104,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>46</v>
@@ -9142,13 +9136,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>47</v>
@@ -9174,13 +9168,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>49</v>
@@ -9206,13 +9200,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>51</v>
@@ -9240,13 +9234,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>53</v>
@@ -9272,13 +9266,13 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>55</v>
@@ -9304,13 +9298,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>57</v>
@@ -9336,13 +9330,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>59</v>
@@ -9368,13 +9362,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>60</v>
@@ -9400,13 +9394,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>60</v>
@@ -9432,13 +9426,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>47</v>
@@ -9464,13 +9458,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>62</v>
@@ -9496,13 +9490,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>63</v>
@@ -9528,13 +9522,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>63</v>
@@ -9560,13 +9554,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>60</v>
@@ -9592,13 +9586,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -9624,16 +9618,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="18"/>
@@ -9656,13 +9650,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>66</v>
@@ -9688,13 +9682,13 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>68</v>
@@ -9718,13 +9712,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>70</v>
@@ -9750,13 +9744,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>71</v>
@@ -9782,16 +9776,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>73</v>
+        <v>642</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1056</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="18"/>
@@ -9814,16 +9808,16 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="18"/>
@@ -9844,16 +9838,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="18"/>
@@ -9874,16 +9868,16 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="18"/>
@@ -9904,16 +9898,16 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="18"/>
@@ -9934,16 +9928,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="18"/>
@@ -9964,16 +9958,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="18"/>
@@ -9996,16 +9990,16 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="18"/>
@@ -10026,16 +10020,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="18"/>
@@ -10058,16 +10052,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="18"/>
@@ -10092,16 +10086,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="18"/>
@@ -10124,16 +10118,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="18"/>
@@ -10156,16 +10150,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="18"/>
@@ -10188,16 +10182,16 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="18"/>
@@ -10218,16 +10212,16 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="18"/>
@@ -10248,16 +10242,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="18"/>
@@ -10278,16 +10272,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="18"/>
@@ -10310,16 +10304,16 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="18"/>
@@ -10342,16 +10336,16 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="18"/>
@@ -10374,16 +10368,16 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="18"/>
@@ -10404,16 +10398,16 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="18"/>
@@ -10436,16 +10430,16 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="18"/>
@@ -10468,16 +10462,16 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="18"/>
@@ -10500,16 +10494,16 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="18"/>
@@ -10532,16 +10526,16 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="18"/>
@@ -10562,16 +10556,16 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="18"/>
@@ -10594,16 +10588,16 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="18"/>
@@ -10628,16 +10622,16 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="18"/>
@@ -10662,16 +10656,16 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="18"/>
@@ -10694,16 +10688,16 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="18"/>
@@ -10726,16 +10720,16 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="18"/>
@@ -10758,16 +10752,16 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="18"/>
@@ -10790,13 +10784,13 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>27</v>
@@ -10820,16 +10814,16 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="18"/>
@@ -10850,16 +10844,16 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="18"/>
@@ -10882,16 +10876,16 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="18"/>
@@ -10912,16 +10906,16 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="18"/>
@@ -10944,16 +10938,16 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="18"/>
@@ -10976,16 +10970,16 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="18"/>
@@ -11008,16 +11002,16 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="18"/>
@@ -11040,16 +11034,16 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="18"/>
@@ -11072,16 +11066,16 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="18"/>
@@ -11103,16 +11097,16 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="18"/>
@@ -11134,16 +11128,16 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="18"/>
@@ -11167,16 +11161,16 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="18"/>
@@ -11200,16 +11194,16 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="18"/>
@@ -11232,16 +11226,16 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="18"/>
@@ -11265,16 +11259,16 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="18"/>
@@ -11296,16 +11290,16 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="18"/>
@@ -11327,16 +11321,16 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="18"/>
@@ -11360,13 +11354,13 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>49</v>
@@ -11393,16 +11387,16 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="18"/>
@@ -11427,16 +11421,16 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="18"/>
@@ -11457,16 +11451,16 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="18"/>
@@ -11489,16 +11483,16 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="18"/>
@@ -11521,16 +11515,16 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="18"/>
@@ -11553,16 +11547,16 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="18"/>
@@ -11585,16 +11579,16 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="18"/>
@@ -11617,16 +11611,16 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="18"/>
@@ -11649,16 +11643,16 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="18"/>
@@ -11679,16 +11673,16 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="18"/>
@@ -11711,16 +11705,16 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="18"/>
@@ -11741,16 +11735,16 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="18"/>
@@ -11773,16 +11767,16 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="18"/>
@@ -11805,16 +11799,16 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="18"/>
@@ -11837,16 +11831,16 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="18"/>
@@ -11869,16 +11863,16 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="18"/>
@@ -11903,16 +11897,16 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="18"/>
@@ -11935,16 +11929,16 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="18"/>
@@ -11965,16 +11959,16 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="18"/>
@@ -11997,16 +11991,16 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="18"/>
@@ -12027,16 +12021,16 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="18"/>
@@ -12057,16 +12051,16 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="18"/>
@@ -12089,16 +12083,16 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="18"/>
@@ -12121,16 +12115,16 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="18"/>
@@ -12153,16 +12147,16 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="18"/>
@@ -12187,16 +12181,16 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="18"/>
@@ -12219,16 +12213,16 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D117" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="18"/>
@@ -12251,16 +12245,16 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="18"/>
@@ -12283,16 +12277,16 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="18"/>
@@ -12315,16 +12309,16 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="18"/>
@@ -12347,16 +12341,16 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="18"/>
@@ -12379,16 +12373,16 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="18"/>
@@ -12409,16 +12403,16 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="18"/>
@@ -12441,16 +12435,16 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="18"/>
@@ -12471,16 +12465,16 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B125" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="18"/>
@@ -12503,16 +12497,16 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="18"/>
@@ -12535,16 +12529,16 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="18"/>
@@ -12567,16 +12561,16 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="18"/>
@@ -12597,16 +12591,16 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="18"/>
@@ -12629,16 +12623,16 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="18"/>
@@ -12659,16 +12653,16 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="18"/>
@@ -12691,16 +12685,16 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B132" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="18"/>
@@ -12723,16 +12717,16 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="18"/>
@@ -12755,16 +12749,16 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="18"/>
@@ -12785,16 +12779,16 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="18"/>
@@ -12817,16 +12811,16 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B136" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="18"/>
@@ -12847,16 +12841,16 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="18"/>
@@ -12879,16 +12873,16 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B138" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="18"/>
@@ -12911,16 +12905,16 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="18"/>
@@ -12945,16 +12939,16 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="18"/>
@@ -12977,16 +12971,16 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="18"/>
@@ -13009,16 +13003,16 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="18"/>
@@ -13039,16 +13033,16 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B143" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="18"/>
@@ -13071,16 +13065,16 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="18"/>
@@ -13103,16 +13097,16 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B145" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="18"/>
@@ -13133,16 +13127,16 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>674</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="18"/>
@@ -13165,16 +13159,16 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="18"/>
@@ -13197,16 +13191,16 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B148" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="18"/>
@@ -13229,16 +13223,16 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="18"/>
@@ -13259,16 +13253,16 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="18"/>
@@ -13291,16 +13285,16 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="18"/>
@@ -13323,16 +13317,16 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="18"/>
@@ -13353,16 +13347,16 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="18"/>
@@ -13383,16 +13377,16 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="18"/>
@@ -13415,13 +13409,13 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -13445,16 +13439,16 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B156" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="18"/>
@@ -13479,16 +13473,16 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="18"/>
@@ -13511,16 +13505,16 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="18"/>
@@ -13541,16 +13535,16 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="18"/>
@@ -13573,16 +13567,16 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="18"/>
@@ -13603,16 +13597,16 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="18"/>
@@ -13633,16 +13627,16 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="18"/>
@@ -13663,16 +13657,16 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E163" s="11"/>
       <c r="F163" s="18"/>
@@ -13695,16 +13689,16 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="18"/>
@@ -13727,16 +13721,16 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B165" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="18"/>
@@ -13759,16 +13753,16 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B166" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="18"/>
@@ -13791,16 +13785,16 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="18"/>
@@ -13821,16 +13815,16 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B168" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D168" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="18"/>
@@ -13853,16 +13847,16 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="18"/>
@@ -13883,16 +13877,16 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="18"/>
@@ -13915,16 +13909,16 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B171" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D171" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="18"/>
@@ -13947,16 +13941,16 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="18"/>
@@ -13979,16 +13973,16 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="18"/>
@@ -14009,16 +14003,16 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="18"/>
@@ -14041,16 +14035,16 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="18"/>
@@ -14073,16 +14067,16 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="18"/>
@@ -14105,16 +14099,16 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="18"/>
@@ -14137,16 +14131,16 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B178" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D178" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="18"/>
@@ -14167,16 +14161,16 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="18"/>
@@ -14199,16 +14193,16 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="18"/>
@@ -14231,16 +14225,16 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B181" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="18"/>
@@ -14261,16 +14255,16 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="18"/>
@@ -14291,16 +14285,16 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E183" s="11"/>
       <c r="F183" s="18"/>
@@ -14323,16 +14317,16 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B184" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="18"/>
@@ -14353,16 +14347,16 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B185" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="18"/>
@@ -14385,16 +14379,16 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B186" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="18"/>
@@ -14415,16 +14409,16 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="18"/>
@@ -14447,16 +14441,16 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B188" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="18"/>
@@ -14479,16 +14473,16 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B189" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D189" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="18"/>
@@ -14509,16 +14503,16 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="18"/>
@@ -14541,16 +14535,16 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="18"/>
@@ -14573,16 +14567,16 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="18"/>
@@ -14605,16 +14599,16 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B193" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D193" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="E193" s="11"/>
       <c r="F193" s="18"/>
@@ -14637,16 +14631,16 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B194" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="E194" s="11"/>
       <c r="F194" s="18"/>
@@ -14669,16 +14663,16 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B195" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D195" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="18"/>
@@ -14699,16 +14693,16 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E196" s="8"/>
       <c r="F196" s="18"/>
@@ -14731,16 +14725,16 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B197" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D197" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="18"/>
@@ -14763,16 +14757,16 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E198" s="8"/>
       <c r="F198" s="18"/>
@@ -14793,16 +14787,16 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="18"/>
@@ -14825,16 +14819,16 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D200" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="18"/>
@@ -14857,16 +14851,16 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D201" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="18"/>
@@ -14889,16 +14883,16 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="18"/>
@@ -14921,16 +14915,16 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="18"/>
@@ -14955,16 +14949,16 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E204" s="8"/>
       <c r="F204" s="18"/>
@@ -14987,13 +14981,13 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
@@ -15017,16 +15011,16 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B206" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="18"/>
@@ -15047,16 +15041,16 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E207" s="11"/>
       <c r="F207" s="18"/>
@@ -15079,16 +15073,16 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="18"/>
@@ -15111,16 +15105,16 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="18"/>
@@ -15143,16 +15137,16 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="18"/>
@@ -15175,16 +15169,16 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B211" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D211" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="18"/>
@@ -15205,16 +15199,16 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="18"/>
@@ -15235,16 +15229,16 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B213" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D213" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="18"/>
@@ -15265,16 +15259,16 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E214" s="11"/>
       <c r="F214" s="18"/>
@@ -15297,16 +15291,16 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E215" s="11"/>
       <c r="F215" s="18"/>
@@ -15329,16 +15323,16 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="18"/>
@@ -15359,16 +15353,16 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="18"/>
@@ -15389,16 +15383,16 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B218" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="18"/>
@@ -15421,16 +15415,16 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D219" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="18"/>
@@ -15453,16 +15447,16 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B220" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D220" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="E220" s="11"/>
       <c r="F220" s="18"/>
@@ -15487,16 +15481,16 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B221" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D221" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="E221" s="8"/>
       <c r="F221" s="18"/>
@@ -15519,16 +15513,16 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E222" s="8"/>
       <c r="F222" s="18"/>
@@ -15551,16 +15545,16 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="22"/>
@@ -15583,16 +15577,16 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B224" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D224" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="E224" s="11"/>
       <c r="F224" s="22"/>
@@ -15615,16 +15609,16 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B225" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D225" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="E225" s="11"/>
       <c r="F225" s="22"/>
@@ -15647,16 +15641,16 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E226" s="8"/>
       <c r="F226" s="22"/>
@@ -15679,16 +15673,16 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B227" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D227" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D227" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="E227" s="8"/>
       <c r="F227" s="22"/>
@@ -15711,16 +15705,16 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E228" s="8"/>
       <c r="F228" s="22"/>
@@ -15743,16 +15737,16 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D229" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="22"/>
@@ -15775,16 +15769,16 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="22"/>
@@ -15805,16 +15799,16 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B231" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D231" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="22"/>
@@ -15835,16 +15829,16 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B232" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D232" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="22"/>
@@ -15865,16 +15859,16 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B233" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D233" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="22"/>
@@ -15897,16 +15891,16 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E234" s="11"/>
       <c r="F234" s="22"/>
@@ -15929,16 +15923,16 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B235" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D235" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="22"/>
@@ -15961,16 +15955,16 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="22"/>
@@ -15995,16 +15989,16 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E237" s="8"/>
       <c r="F237" s="22"/>
@@ -16027,16 +16021,16 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="22"/>
@@ -16059,16 +16053,16 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="22"/>
@@ -16091,16 +16085,16 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E240" s="11"/>
       <c r="F240" s="22"/>
@@ -16123,16 +16117,16 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E241" s="8"/>
       <c r="F241" s="22"/>
@@ -16157,16 +16151,16 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E242" s="8"/>
       <c r="F242" s="22"/>
@@ -16187,16 +16181,16 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B243" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D243" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="E243" s="8"/>
       <c r="F243" s="22"/>
@@ -16219,13 +16213,13 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>47</v>
@@ -16251,16 +16245,16 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B245" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E245" s="8"/>
       <c r="F245" s="22"/>
@@ -16281,16 +16275,16 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B246" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D246" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="E246" s="8"/>
       <c r="F246" s="22"/>
@@ -16313,16 +16307,16 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E247" s="8"/>
       <c r="F247" s="22"/>
@@ -16345,13 +16339,13 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B248" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>57</v>
@@ -16377,16 +16371,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E249" s="8"/>
       <c r="F249" s="22"/>
@@ -16409,16 +16403,16 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B250" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D250" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="22"/>
@@ -16441,16 +16435,16 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E251" s="11"/>
       <c r="F251" s="22"/>
@@ -16473,16 +16467,16 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E252" s="8"/>
       <c r="F252" s="22"/>
@@ -16503,16 +16497,16 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="22"/>
@@ -16533,16 +16527,16 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B254" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D254" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D254" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="22"/>
@@ -16565,16 +16559,16 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="22"/>
@@ -16597,16 +16591,16 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B256" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D256" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="22"/>
@@ -16627,16 +16621,16 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B257" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D257" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="E257" s="11"/>
       <c r="F257" s="22"/>
@@ -16659,16 +16653,16 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E258" s="8"/>
       <c r="F258" s="22"/>
@@ -16689,16 +16683,16 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B259" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D259" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="E259" s="8"/>
       <c r="F259" s="22"/>
@@ -16721,16 +16715,16 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="22"/>
@@ -16751,16 +16745,16 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="22"/>
@@ -16785,16 +16779,16 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="22"/>
@@ -16817,16 +16811,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B263" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D263" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D263" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="E263" s="8"/>
       <c r="F263" s="22"/>
@@ -16847,16 +16841,16 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B264" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D264" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="E264" s="11"/>
       <c r="F264" s="22"/>
@@ -16879,16 +16873,16 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B265" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D265" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265" s="22"/>
@@ -16911,16 +16905,16 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="22"/>
@@ -16941,16 +16935,16 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E267" s="8"/>
       <c r="F267" s="22"/>
@@ -16973,16 +16967,16 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E268" s="11"/>
       <c r="F268" s="22"/>
@@ -17005,16 +16999,16 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E269" s="11"/>
       <c r="F269" s="22"/>
@@ -17035,16 +17029,16 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B270" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D270" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="E270" s="11"/>
       <c r="F270" s="22"/>
@@ -17067,16 +17061,16 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="22"/>
@@ -17097,16 +17091,16 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E272" s="11"/>
       <c r="F272" s="22"/>
@@ -17129,16 +17123,16 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B273" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D273" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D273" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="22"/>
@@ -17159,16 +17153,16 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E274" s="11"/>
       <c r="F274" s="22"/>
@@ -17191,16 +17185,16 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E275" s="11"/>
       <c r="F275" s="22"/>
@@ -17223,16 +17217,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B276" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D276" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="22"/>
@@ -17255,16 +17249,16 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="22"/>
@@ -17285,16 +17279,16 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B278" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D278" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D278" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E278" s="11"/>
       <c r="F278" s="22"/>
@@ -17319,16 +17313,16 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B279" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D279" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="E279" s="11"/>
       <c r="F279" s="22"/>
@@ -17351,16 +17345,16 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E280" s="11"/>
       <c r="F280" s="22"/>
@@ -17383,16 +17377,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E281" s="11"/>
       <c r="F281" s="22"/>
@@ -17415,16 +17409,16 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="22"/>
@@ -17447,16 +17441,16 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B283" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D283" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="E283" s="8"/>
       <c r="F283" s="22"/>
@@ -17477,16 +17471,16 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E284" s="8"/>
       <c r="F284" s="22"/>
@@ -17509,16 +17503,16 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B285" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D285" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>360</v>
       </c>
       <c r="E285" s="8"/>
       <c r="F285" s="22"/>
@@ -17541,16 +17535,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="22"/>
@@ -17573,16 +17567,16 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="22"/>
@@ -17603,16 +17597,16 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B288" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D288" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="E288" s="8"/>
       <c r="F288" s="22"/>
@@ -17635,16 +17629,16 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B289" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D289" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D289" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="E289" s="8"/>
       <c r="F289" s="22"/>
@@ -17667,16 +17661,16 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B290" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D290" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="E290" s="8"/>
       <c r="F290" s="22"/>
@@ -17699,16 +17693,16 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B291" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D291" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="E291" s="11"/>
       <c r="F291" s="22"/>
@@ -17731,16 +17725,16 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E292" s="8"/>
       <c r="F292" s="22"/>
@@ -17761,16 +17755,16 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B293" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D293" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C293" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D293" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="E293" s="11"/>
       <c r="F293" s="22"/>
@@ -17793,16 +17787,16 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E294" s="11"/>
       <c r="F294" s="22"/>
@@ -17825,16 +17819,16 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E295" s="8"/>
       <c r="F295" s="22"/>
@@ -17859,16 +17853,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B296" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D296" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="C296" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="22"/>
@@ -17891,16 +17885,16 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="22"/>
@@ -17925,16 +17919,16 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="22"/>
@@ -17955,16 +17949,16 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B299" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D299" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="22"/>
@@ -17987,16 +17981,16 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E300" s="11"/>
       <c r="F300" s="22"/>
@@ -18019,16 +18013,16 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="22"/>
@@ -18051,16 +18045,16 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B302" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D302" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="C302" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="22"/>
@@ -18083,16 +18077,16 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B303" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D303" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D303" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="E303" s="11"/>
       <c r="F303" s="22"/>
@@ -18115,16 +18109,16 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="22"/>
@@ -18147,16 +18141,16 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B305" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D305" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="C305" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="22"/>
@@ -18179,16 +18173,16 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E306" s="8"/>
       <c r="F306" s="22"/>
@@ -18209,16 +18203,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D307" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="19">
@@ -18239,16 +18233,16 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B308" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="C308" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="C308" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="E308" s="8"/>
       <c r="F308" s="22"/>
@@ -18269,16 +18263,16 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D309" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D309" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="22"/>
@@ -18299,16 +18293,16 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B310" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="C310" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D310" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="E310" s="8"/>
       <c r="F310" s="22"/>
@@ -18329,16 +18323,16 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B311" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="B311" s="11" t="s">
-        <v>690</v>
-      </c>
       <c r="C311" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E311" s="8"/>
       <c r="F311" s="22"/>
@@ -18359,16 +18353,16 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D312" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C312" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>692</v>
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="18"/>
@@ -18389,16 +18383,16 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="22"/>
@@ -18419,16 +18413,16 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B314" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="C314" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D314" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="E314" s="8"/>
       <c r="F314" s="22"/>
@@ -18449,16 +18443,16 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B315" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="C315" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D315" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="C315" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="22"/>
@@ -18479,16 +18473,16 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B316" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="C316" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D316" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D316" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="E316" s="10"/>
       <c r="F316" s="22"/>
@@ -18509,16 +18503,16 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="C317" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="E317" s="8"/>
       <c r="F317" s="22"/>
@@ -18539,16 +18533,16 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>412</v>
-      </c>
       <c r="C318" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E318" s="8"/>
       <c r="F318" s="22"/>
@@ -18569,16 +18563,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E319" s="8"/>
       <c r="F319" s="22"/>
@@ -18599,16 +18593,16 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E320" s="8"/>
       <c r="F320" s="22"/>
@@ -18629,16 +18623,16 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D321" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C321" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="E321" s="8"/>
       <c r="F321" s="22"/>
@@ -18659,16 +18653,16 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B322" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="C322" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D322" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="E322" s="8"/>
       <c r="F322" s="32">
@@ -18689,16 +18683,16 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E323" s="8"/>
       <c r="F323" s="22"/>
@@ -18721,16 +18715,16 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E324" s="8"/>
       <c r="F324" s="22"/>
@@ -18751,16 +18745,16 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B325" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D325" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="E325" s="8"/>
       <c r="F325" s="22"/>
@@ -18781,16 +18775,16 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E326" s="8"/>
       <c r="F326" s="22"/>
@@ -18813,16 +18807,16 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E327" s="8"/>
       <c r="F327" s="22"/>
@@ -18843,16 +18837,16 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B328" s="8" t="s">
+      <c r="C328" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D328" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="E328" s="8"/>
       <c r="F328" s="22"/>
@@ -18873,16 +18867,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D329" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="E329" s="8"/>
       <c r="F329" s="22"/>
@@ -18903,16 +18897,16 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B330" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D330" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="E330" s="8"/>
       <c r="F330" s="22"/>
@@ -18933,16 +18927,16 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D331" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D331" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="22"/>
@@ -18963,16 +18957,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E332" s="8"/>
       <c r="F332" s="22"/>
@@ -18993,16 +18987,16 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="32">
@@ -19023,16 +19017,16 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D334" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D334" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="E334" s="8"/>
       <c r="F334" s="22"/>
@@ -19053,16 +19047,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B335" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="C335" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D335" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D335" s="10" t="s">
-        <v>446</v>
       </c>
       <c r="E335" s="8"/>
       <c r="F335" s="22"/>
@@ -19083,16 +19077,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E336" s="8"/>
       <c r="F336" s="22"/>
@@ -19113,16 +19107,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E337" s="8"/>
       <c r="F337" s="22"/>
@@ -19143,13 +19137,13 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
@@ -19171,16 +19165,16 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E339" s="8"/>
       <c r="F339" s="22"/>
@@ -19201,16 +19195,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E340" s="8"/>
       <c r="F340" s="22"/>
@@ -19231,16 +19225,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B341" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="C341" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D341" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C341" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D341" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="E341" s="8"/>
       <c r="F341" s="22"/>
@@ -19261,16 +19255,16 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B342" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D342" s="11" t="s">
         <v>701</v>
-      </c>
-      <c r="C342" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D342" s="11" t="s">
-        <v>702</v>
       </c>
       <c r="E342" s="11"/>
       <c r="F342" s="22"/>
@@ -19293,16 +19287,16 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D343" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C343" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D343" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="E343" s="8"/>
       <c r="F343" s="22"/>
@@ -19323,16 +19317,16 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B344" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B344" s="8" t="s">
-        <v>461</v>
-      </c>
       <c r="C344" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="22"/>
@@ -19353,16 +19347,16 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B345" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B345" s="8" t="s">
-        <v>652</v>
-      </c>
       <c r="C345" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E345" s="8"/>
       <c r="F345" s="22"/>
@@ -19385,16 +19379,16 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B346" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B346" s="8" t="s">
+      <c r="C346" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D346" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="E346" s="8"/>
       <c r="F346" s="22"/>
@@ -19415,16 +19409,16 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E347" s="8"/>
       <c r="F347" s="18"/>
@@ -19445,16 +19439,16 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E348" s="8"/>
       <c r="F348" s="22"/>
@@ -19475,16 +19469,16 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B349" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D349" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="B349" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="C349" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="E349" s="8"/>
       <c r="F349" s="22"/>
@@ -19505,16 +19499,16 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E350" s="11"/>
       <c r="F350" s="24"/>
@@ -19535,16 +19529,16 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="B351" s="8" t="s">
-        <v>708</v>
-      </c>
       <c r="C351" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E351" s="8"/>
       <c r="F351" s="22"/>
@@ -19565,16 +19559,16 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B352" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D352" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D352" s="10" t="s">
-        <v>710</v>
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="22"/>
@@ -19595,16 +19589,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B353" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D353" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="E353" s="11"/>
       <c r="F353" s="22"/>
@@ -19625,16 +19619,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E354" s="8"/>
       <c r="F354" s="22"/>
@@ -19655,16 +19649,16 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B355" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="C355" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D355" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="C355" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>478</v>
       </c>
       <c r="E355" s="8"/>
       <c r="F355" s="22"/>
@@ -19685,16 +19679,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="C356" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D356" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="C356" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="22"/>
@@ -19715,16 +19709,16 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D357" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="B357" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C357" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D357" s="10" t="s">
-        <v>483</v>
       </c>
       <c r="E357" s="8"/>
       <c r="F357" s="22"/>
@@ -19745,16 +19739,16 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D358" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C358" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="22"/>
@@ -19775,13 +19769,13 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>27</v>
@@ -19805,16 +19799,16 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B360" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D360" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="C360" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D360" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="22"/>
@@ -19835,16 +19829,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E361" s="8"/>
       <c r="F361" s="22"/>
@@ -19865,16 +19859,16 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="22"/>
@@ -19895,16 +19889,16 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B363" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E363" s="10"/>
       <c r="F363" s="22"/>
@@ -19925,16 +19919,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="C364" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D364" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="C364" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D364" s="8" t="s">
-        <v>719</v>
       </c>
       <c r="E364" s="8"/>
       <c r="F364" s="22"/>
@@ -19955,16 +19949,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E365" s="8"/>
       <c r="F365" s="22"/>
@@ -19985,16 +19979,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D366" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C366" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="E366" s="8"/>
       <c r="F366" s="22"/>
@@ -20015,16 +20009,16 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="22"/>
@@ -20045,16 +20039,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E368" s="8"/>
       <c r="F368" s="22"/>
@@ -20075,16 +20069,16 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="22"/>
@@ -20105,16 +20099,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E370" s="8"/>
       <c r="F370" s="22"/>
@@ -20135,16 +20129,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E371" s="8"/>
       <c r="F371" s="22"/>
@@ -20165,13 +20159,13 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
@@ -20193,16 +20187,16 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B373" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B373" s="8" t="s">
-        <v>502</v>
-      </c>
       <c r="C373" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E373" s="8"/>
       <c r="F373" s="22"/>
@@ -20225,16 +20219,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D374" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C374" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="E374" s="8"/>
       <c r="F374" s="22"/>
@@ -20255,16 +20249,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="C375" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D375" s="11" t="s">
         <v>506</v>
-      </c>
-      <c r="C375" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D375" s="11" t="s">
-        <v>507</v>
       </c>
       <c r="E375" s="8"/>
       <c r="F375" s="22"/>
@@ -20285,16 +20279,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B376" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="C376" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D376" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="C376" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D376" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="22"/>
@@ -20315,16 +20309,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D377" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C377" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="22"/>
@@ -20345,16 +20339,16 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="22"/>
@@ -20375,16 +20369,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="22"/>
@@ -20405,16 +20399,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D380" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>517</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="22"/>
@@ -20435,16 +20429,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D381" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="B381" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C381" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="22"/>
@@ -20465,16 +20459,16 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B382" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="C382" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D382" s="10" t="s">
         <v>521</v>
-      </c>
-      <c r="C382" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D382" s="10" t="s">
-        <v>522</v>
       </c>
       <c r="E382" s="8"/>
       <c r="F382" s="22"/>
@@ -20495,16 +20489,16 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E383" s="8"/>
       <c r="F383" s="22"/>
@@ -20525,16 +20519,16 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D384" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="B384" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C384" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D384" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="22"/>
@@ -20559,16 +20553,16 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D385" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="B385" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>726</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="22"/>
@@ -20589,16 +20583,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D386" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="C386" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>728</v>
       </c>
       <c r="E386" s="8"/>
       <c r="F386" s="22"/>
@@ -20619,16 +20613,16 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E387" s="10"/>
       <c r="F387" s="22"/>
@@ -20649,16 +20643,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B388" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D388" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="C388" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D388" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="E388" s="10"/>
       <c r="F388" s="22"/>
@@ -20679,16 +20673,16 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B389" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="C389" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D389" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="C389" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="22"/>
@@ -20709,16 +20703,16 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="C390" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D390" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="C390" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="22"/>
@@ -20739,16 +20733,16 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B391" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="C391" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D391" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="C391" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D391" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="E391" s="10"/>
       <c r="F391" s="22"/>
@@ -20769,16 +20763,16 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E392" s="10"/>
       <c r="F392" s="22"/>
@@ -20799,16 +20793,16 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B393" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="C393" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D393" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="C393" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>542</v>
       </c>
       <c r="E393" s="8"/>
       <c r="F393" s="22"/>
@@ -20829,16 +20823,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E394" s="8"/>
       <c r="F394" s="22"/>
@@ -20859,16 +20853,16 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="C395" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D395" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="C395" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="22"/>
@@ -20889,16 +20883,16 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D396" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C396" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="E396" s="8"/>
       <c r="F396" s="22"/>
@@ -20919,16 +20913,16 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D397" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C397" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D397" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="E397" s="10"/>
       <c r="F397" s="25"/>
@@ -20949,16 +20943,16 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B398" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="C398" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D398" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="C398" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="E398" s="8"/>
       <c r="F398" s="22"/>
@@ -20979,16 +20973,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D399" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="B399" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C399" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D399" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="E399" s="10"/>
       <c r="F399" s="22"/>
@@ -21009,16 +21003,16 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D400" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C400" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D400" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="22"/>
@@ -21039,16 +21033,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E401" s="8"/>
       <c r="F401" s="22"/>
@@ -21069,16 +21063,16 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B402" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D402" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C402" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D402" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="22"/>
@@ -21099,16 +21093,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D403" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C403" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D403" s="8" t="s">
-        <v>562</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="22"/>
@@ -21129,16 +21123,16 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="C404" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D404" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="C404" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D404" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="E404" s="8"/>
       <c r="F404" s="22"/>
@@ -21159,16 +21153,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E405" s="8"/>
       <c r="F405" s="22"/>
@@ -21189,16 +21183,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="19">
@@ -21221,16 +21215,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D407" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C407" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D407" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="22"/>
@@ -21251,16 +21245,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B408" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B408" s="10" t="s">
-        <v>573</v>
-      </c>
       <c r="C408" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D408" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E408" s="10"/>
       <c r="F408" s="22"/>
@@ -21281,16 +21275,16 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E409" s="8"/>
       <c r="F409" s="32">
@@ -21311,16 +21305,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E410" s="11"/>
       <c r="F410" s="22"/>
@@ -21341,16 +21335,16 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D411" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E411" s="10"/>
       <c r="F411" s="22"/>
@@ -21371,16 +21365,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="32">
@@ -21401,16 +21395,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B413" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="C413" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D413" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="C413" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D413" s="11" t="s">
-        <v>582</v>
       </c>
       <c r="E413" s="11"/>
       <c r="F413" s="22"/>
@@ -21431,16 +21425,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E414" s="8"/>
       <c r="F414" s="22"/>
@@ -21461,16 +21455,16 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B415" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D415" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C415" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D415" s="8" t="s">
-        <v>586</v>
       </c>
       <c r="E415" s="8"/>
       <c r="F415" s="22"/>
@@ -21491,16 +21485,16 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B416" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D416" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="25"/>
@@ -21521,16 +21515,16 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E417" s="8"/>
       <c r="F417" s="22"/>
@@ -21551,16 +21545,16 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B418" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E418" s="8"/>
       <c r="F418" s="22"/>
@@ -21581,16 +21575,16 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E419" s="8"/>
       <c r="F419" s="22"/>
@@ -21611,16 +21605,16 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E420" s="8"/>
       <c r="F420" s="22"/>
@@ -21641,16 +21635,16 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B421" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="B421" s="11" t="s">
+      <c r="C421" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D421" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="C421" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D421" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="22"/>
@@ -21671,16 +21665,16 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B422" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D422" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C422" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D422" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="22"/>
@@ -21701,16 +21695,16 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B423" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="C423" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D423" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="C423" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D423" s="8" t="s">
-        <v>598</v>
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="22"/>
@@ -21731,16 +21725,16 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="22"/>
@@ -21761,16 +21755,16 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D425" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="B425" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C425" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D425" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="E425" s="8"/>
       <c r="F425" s="22"/>
@@ -21791,16 +21785,16 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B426" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D426" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="B426" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C426" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D426" s="11" t="s">
-        <v>604</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="22"/>
@@ -21821,16 +21815,16 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B427" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="C427" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D427" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C427" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="22"/>
@@ -21851,16 +21845,16 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B428" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D428" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E428" s="10"/>
       <c r="F428" s="22"/>
@@ -21881,16 +21875,16 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D429" s="10" t="s">
         <v>741</v>
-      </c>
-      <c r="B429" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C429" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D429" s="10" t="s">
-        <v>742</v>
       </c>
       <c r="E429" s="10"/>
       <c r="F429" s="22"/>
@@ -21911,16 +21905,16 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B430" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E430" s="8"/>
       <c r="F430" s="22"/>
@@ -21941,16 +21935,16 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B431" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B431" s="8" t="s">
-        <v>612</v>
-      </c>
       <c r="C431" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="22"/>
@@ -21971,16 +21965,16 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D432" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="22"/>
@@ -22001,16 +21995,16 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B433" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="C433" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D433" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D433" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="22"/>
@@ -22031,16 +22025,16 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B434" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="22"/>
@@ -22061,16 +22055,16 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E435" s="8"/>
       <c r="F435" s="22"/>
@@ -22091,16 +22085,16 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B436" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="22"/>
@@ -22123,16 +22117,16 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B437" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="22"/>
@@ -22153,16 +22147,16 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="22"/>
@@ -22183,16 +22177,16 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E439" s="8"/>
       <c r="F439" s="22"/>
@@ -22213,16 +22207,16 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B440" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D440" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="31">
@@ -22243,13 +22237,13 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -22271,16 +22265,16 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B442" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="22"/>
@@ -22301,16 +22295,16 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B443" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="19">
@@ -22331,16 +22325,16 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B444" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E444" s="8"/>
       <c r="F444" s="22"/>
@@ -22361,16 +22355,16 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B445" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E445" s="8"/>
       <c r="F445" s="22"/>
@@ -22391,16 +22385,16 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="22"/>
@@ -22421,16 +22415,16 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B447" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E447" s="8"/>
       <c r="F447" s="32">
@@ -22451,16 +22445,16 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B448" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D448" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E448" s="8"/>
       <c r="F448" s="22"/>
@@ -22481,16 +22475,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D449" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E449" s="8"/>
       <c r="F449" s="22"/>
@@ -22806,7 +22800,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
@@ -22829,7 +22823,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -22852,7 +22846,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -22875,7 +22869,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -22898,7 +22892,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -22921,7 +22915,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -22944,7 +22938,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -22967,7 +22961,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -22990,7 +22984,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -23013,7 +23007,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B11">
         <v>2016</v>
